--- a/fsdata/자이글.xlsx
+++ b/fsdata/자이글.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fintech\Bit_Project1\fsdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA6356-3ADD-421E-822F-30925FB34F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11655" yWindow="1380" windowWidth="16710" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="Data_cf" sheetId="5" r:id="rId5"/>
     <sheet name="Labels_cf" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="473">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1435,17 +1441,21 @@
   </si>
   <si>
     <t>현금및현금성자산에대한환율변동효과</t>
+  </si>
+  <si>
+    <t>영업활동에서 창출된 현금흐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1453,8 +1463,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1493,22 +1510,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1550,7 +1578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,9 +1610,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1616,6 +1662,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1791,24 +1855,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1822,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1858,7 +1922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1893,7 +1957,7 @@
         <v>29462062458</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1931,7 +1995,7 @@
         <v>7549434549</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1969,7 +2033,7 @@
         <v>13200000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1998,7 +2062,7 @@
         <v>389882674</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2036,7 +2100,7 @@
         <v>6529813915</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2074,7 +2138,7 @@
         <v>1254108714</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2112,7 +2176,7 @@
         <v>161822861</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2150,7 +2214,7 @@
         <v>681882419</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2179,7 +2243,7 @@
         <v>85000000</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2214,7 +2278,7 @@
         <v>27894283809</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2252,7 +2316,7 @@
         <v>404635266</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2290,7 +2354,7 @@
         <v>3848687880</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2328,7 +2392,7 @@
         <v>23629274113</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2366,7 +2430,7 @@
         <v>11686550</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2395,7 +2459,7 @@
         <v>2767788500</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2430,7 +2494,7 @@
         <v>57356346267</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2465,7 +2529,7 @@
         <v>9417298846</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2503,7 +2567,7 @@
         <v>1433829840</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2541,7 +2605,7 @@
         <v>4097154702</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2579,7 +2643,7 @@
         <v>1290008861</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2614,7 +2678,7 @@
         <v>2346559832</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2652,7 +2716,7 @@
         <v>74284828</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2687,7 +2751,7 @@
         <v>175460783</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2716,7 +2780,7 @@
         <v>9219349222</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2751,7 +2815,7 @@
         <v>112544913</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2783,7 +2847,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2818,7 +2882,7 @@
         <v>112544913</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2853,7 +2917,7 @@
         <v>9529843759</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2885,7 +2949,7 @@
         <v>47826502508</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2923,7 +2987,7 @@
         <v>908815000</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2961,7 +3025,7 @@
         <v>20364210830</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2996,7 +3060,7 @@
         <v>-984133300</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -3028,7 +3092,7 @@
         <v>99967284</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -3066,7 +3130,7 @@
         <v>26553476678</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -3089,7 +3153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3124,7 +3188,7 @@
         <v>47826502508</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -3160,19 +3224,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>128</v>
@@ -3190,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3208,7 +3273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3228,7 +3293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3248,7 +3313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3268,7 +3333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3288,7 +3353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3308,7 +3373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3328,7 +3393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3348,7 +3413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3368,7 +3433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -3388,7 +3453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -3408,7 +3473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -3428,7 +3493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -3448,7 +3513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -3468,7 +3533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3488,7 +3553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3505,7 +3570,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3525,7 +3590,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3545,7 +3610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3565,7 +3630,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3585,7 +3650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3605,7 +3670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3625,7 +3690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3645,7 +3710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -3665,7 +3730,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -3682,7 +3747,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -3702,7 +3767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3722,7 +3787,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -3742,7 +3807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -3762,7 +3827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -3782,7 +3847,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -3802,7 +3867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -3822,7 +3887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -3842,7 +3907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -3862,7 +3927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -3882,7 +3947,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -3899,7 +3964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -3919,7 +3984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -3940,29 +4005,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>172</v>
       </c>
@@ -3976,7 +4042,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -4012,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4044,7 +4110,7 @@
         <v>101923202724</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4076,7 +4142,7 @@
         <v>29922892667</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4108,7 +4174,7 @@
         <v>72000310057</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4140,7 +4206,7 @@
         <v>55307386710</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4172,7 +4238,7 @@
         <v>16692923347</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4204,7 +4270,7 @@
         <v>225953154</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4239,7 +4305,7 @@
         <v>214218746</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4274,7 +4340,7 @@
         <v>225953154</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4306,7 +4372,7 @@
         <v>268556374</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4341,7 +4407,7 @@
         <v>67741003</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4376,7 +4442,7 @@
         <v>268556374</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4408,7 +4474,7 @@
         <v>16796797870</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4440,7 +4506,7 @@
         <v>3308536040</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -4472,7 +4538,7 @@
         <v>13488261830</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4498,7 +4564,7 @@
         <v>99967284</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -4527,7 +4593,7 @@
         <v>99967284</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -4559,7 +4625,7 @@
         <v>49284</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -4588,7 +4654,7 @@
         <v>99918000</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -4614,7 +4680,7 @@
         <v>-1758822000</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -4643,7 +4709,7 @@
         <v>-1758822000</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -4675,7 +4741,7 @@
         <v>13488261830</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -4710,7 +4776,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -4749,19 +4815,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>128</v>
@@ -4779,7 +4846,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -4797,7 +4864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4817,7 +4884,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4837,7 +4904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4857,7 +4924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4877,7 +4944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4897,7 +4964,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4917,7 +4984,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4937,7 +5004,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4957,7 +5024,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4977,7 +5044,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4997,7 +5064,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5017,7 +5084,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5037,7 +5104,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5057,7 +5124,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5077,7 +5144,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5097,7 +5164,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5117,7 +5184,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5137,7 +5204,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5157,7 +5224,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5174,7 +5241,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5191,7 +5258,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5211,7 +5278,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5231,7 +5298,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5252,28 +5319,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>172</v>
       </c>
@@ -5287,7 +5360,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -5320,7 +5393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -5352,7 +5425,7 @@
         <v>20751171124</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5360,7 +5433,7 @@
         <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
         <v>365</v>
@@ -5387,7 +5460,7 @@
         <v>23402551602</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -5422,7 +5495,7 @@
         <v>138083366</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -5451,7 +5524,7 @@
         <v>10607807</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -5483,7 +5556,7 @@
         <v>2778856037</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -5509,7 +5582,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -5541,7 +5614,7 @@
         <v>-12827043542</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -5573,7 +5646,7 @@
         <v>5200000000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -5602,7 +5675,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -5631,7 +5704,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -5657,7 +5730,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -5686,7 +5759,7 @@
         <v>252264710</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -5715,7 +5788,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5744,7 +5817,7 @@
         <v>1818182</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5770,7 +5843,7 @@
         <v>85000000</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5805,7 +5878,7 @@
         <v>13200000000</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5831,7 +5904,7 @@
         <v>2126800000</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5860,7 +5933,7 @@
         <v>652263168</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5886,7 +5959,7 @@
         <v>4983700</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5918,7 +5991,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5950,7 +6023,7 @@
         <v>25851900984</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5985,7 +6058,7 @@
         <v>6464000</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -6017,7 +6090,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -6043,7 +6116,7 @@
         <v>410000000</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -6078,7 +6151,7 @@
         <v>241200000</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -6104,7 +6177,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -6130,7 +6203,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -6156,7 +6229,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -6188,7 +6261,7 @@
         <v>-1366846170</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -6217,7 +6290,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -6246,7 +6319,7 @@
         <v>645120000</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -6272,7 +6345,7 @@
         <v>500000000</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -6304,7 +6377,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -6333,7 +6406,7 @@
         <v>984133300</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -6362,7 +6435,7 @@
         <v>11966170</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -6388,7 +6461,7 @@
         <v>13858386000</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -6420,7 +6493,7 @@
         <v>6557281412</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -6452,7 +6525,7 @@
         <v>6575265485</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -6484,7 +6557,7 @@
         <v>17984073</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -6516,7 +6589,7 @@
         <v>974169064</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -6552,19 +6625,21 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>128</v>
@@ -6582,7 +6657,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -6600,7 +6675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -6620,7 +6695,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6640,7 +6715,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6660,7 +6735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6680,7 +6755,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6700,7 +6775,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6717,7 +6792,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6737,7 +6812,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6757,7 +6832,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6777,7 +6852,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -6797,7 +6872,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -6817,7 +6892,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6837,7 +6912,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -6857,7 +6932,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6877,7 +6952,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -6897,7 +6972,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6917,7 +6992,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -6937,7 +7012,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -6957,7 +7032,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -6977,7 +7052,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -6997,7 +7072,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -7014,7 +7089,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -7034,7 +7109,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -7054,7 +7129,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -7074,7 +7149,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -7094,7 +7169,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -7114,7 +7189,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -7131,7 +7206,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -7148,7 +7223,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -7168,7 +7243,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -7188,7 +7263,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -7208,7 +7283,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -7228,7 +7303,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -7248,7 +7323,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -7268,7 +7343,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -7288,7 +7363,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -7305,7 +7380,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -7325,7 +7400,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -7345,7 +7420,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -7365,7 +7440,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -7385,7 +7460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -7406,6 +7481,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>